--- a/personas.xlsx
+++ b/personas.xlsx
@@ -11154,7 +11154,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -11954,7 +11954,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12018,7 +12018,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12114,7 +12114,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -12210,7 +12210,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -12274,7 +12274,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -12306,7 +12306,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12402,7 +12402,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -12530,7 +12530,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -12882,7 +12882,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -13234,7 +13234,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -13778,7 +13778,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -14642,7 +14642,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -14866,7 +14866,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -15058,7 +15058,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -15474,7 +15474,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -15602,7 +15602,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -15634,7 +15634,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15986,7 +15986,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -16082,7 +16082,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -16146,7 +16146,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -16370,7 +16370,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -16658,7 +16658,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -16786,7 +16786,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -17106,7 +17106,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -17202,7 +17202,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17266,7 +17266,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -17298,7 +17298,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -17426,7 +17426,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -17810,7 +17810,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -18418,7 +18418,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -18546,7 +18546,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -18738,7 +18738,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -18770,7 +18770,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -18962,7 +18962,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Región de Ayséndel Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -19378,7 +19378,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -19858,7 +19858,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -19922,7 +19922,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -22322,7 +22322,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -22482,7 +22482,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -22674,7 +22674,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -22770,7 +22770,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -22898,7 +22898,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -23602,7 +23602,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -24146,7 +24146,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -24594,7 +24594,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -25010,7 +25010,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -25234,7 +25234,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -25426,7 +25426,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -25842,7 +25842,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -25970,7 +25970,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -26002,7 +26002,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -26354,7 +26354,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -26450,7 +26450,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -26514,7 +26514,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -26738,7 +26738,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -27026,7 +27026,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -27154,7 +27154,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -27474,7 +27474,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -27570,7 +27570,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -27634,7 +27634,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -27666,7 +27666,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -27794,7 +27794,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -28178,7 +28178,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -28786,7 +28786,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -28914,7 +28914,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -29106,7 +29106,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -29138,7 +29138,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -29746,7 +29746,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -30226,7 +30226,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -30290,7 +30290,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>Región del Libertador Gral. Bernardo O Higgins</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -31506,7 +31506,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -31538,7 +31538,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -31570,7 +31570,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -31602,7 +31602,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -31634,7 +31634,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -31666,7 +31666,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -31698,7 +31698,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -31730,7 +31730,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -31762,7 +31762,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -31794,7 +31794,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -31826,7 +31826,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -31858,7 +31858,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>XV. Arica y Parinacota</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -31890,7 +31890,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -31922,7 +31922,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -31954,7 +31954,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -31986,7 +31986,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -32018,7 +32018,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -32050,7 +32050,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -32082,7 +32082,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -32114,7 +32114,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -32146,7 +32146,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -32178,7 +32178,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -32210,7 +32210,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -32242,7 +32242,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>XV. Arica y Parinacota</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -32274,7 +32274,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -32306,7 +32306,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -32338,7 +32338,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -32370,7 +32370,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -32402,7 +32402,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -32434,7 +32434,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -32466,7 +32466,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -32498,7 +32498,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -32530,7 +32530,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -32562,7 +32562,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -32594,7 +32594,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -32626,7 +32626,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -32658,7 +32658,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -32690,7 +32690,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -32722,7 +32722,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -32754,7 +32754,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -32786,7 +32786,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -32818,7 +32818,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -32850,7 +32850,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -32882,7 +32882,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -32914,7 +32914,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -32946,7 +32946,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -32978,7 +32978,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -33010,7 +33010,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -33042,7 +33042,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -33074,7 +33074,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -33106,7 +33106,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -33138,7 +33138,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -33170,7 +33170,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -33202,7 +33202,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -33234,7 +33234,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -33266,7 +33266,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -33298,7 +33298,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -33330,7 +33330,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -33362,7 +33362,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -33394,7 +33394,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -33426,7 +33426,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -33458,7 +33458,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -33490,7 +33490,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -33522,7 +33522,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -33554,7 +33554,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -33586,7 +33586,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -33618,7 +33618,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -33650,7 +33650,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -33682,7 +33682,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -33714,7 +33714,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -33746,7 +33746,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -33778,7 +33778,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -33810,7 +33810,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -33842,7 +33842,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -33874,7 +33874,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -33906,7 +33906,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -33938,7 +33938,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
@@ -33970,7 +33970,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
@@ -34002,7 +34002,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
@@ -34034,7 +34034,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
@@ -34066,7 +34066,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
@@ -34098,7 +34098,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
@@ -34130,7 +34130,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
@@ -34162,7 +34162,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -34194,7 +34194,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
@@ -34226,7 +34226,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
@@ -34258,7 +34258,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -34290,7 +34290,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -34322,7 +34322,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -34354,7 +34354,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -34386,7 +34386,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -34418,7 +34418,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -34450,7 +34450,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -34482,7 +34482,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
@@ -34514,7 +34514,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -34546,7 +34546,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -34578,7 +34578,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -34610,7 +34610,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -34642,7 +34642,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -34674,7 +34674,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -34706,7 +34706,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -34738,7 +34738,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -34770,7 +34770,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -34802,7 +34802,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
@@ -34834,7 +34834,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
@@ -34866,7 +34866,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
@@ -34898,7 +34898,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
@@ -34930,7 +34930,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
@@ -34962,7 +34962,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
@@ -34994,7 +34994,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
@@ -35026,7 +35026,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
@@ -35058,7 +35058,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
@@ -35090,7 +35090,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
@@ -35122,7 +35122,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
@@ -35154,7 +35154,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -35186,7 +35186,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -35218,7 +35218,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
@@ -35250,7 +35250,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
@@ -35282,7 +35282,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
@@ -35314,7 +35314,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
@@ -35346,7 +35346,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
@@ -35378,7 +35378,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
@@ -35410,7 +35410,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
@@ -35442,7 +35442,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
@@ -35474,7 +35474,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -35506,7 +35506,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
@@ -35538,7 +35538,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
@@ -35570,7 +35570,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -35602,7 +35602,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -35634,7 +35634,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
@@ -35666,7 +35666,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -35698,7 +35698,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -35730,7 +35730,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -35762,7 +35762,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -35794,7 +35794,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
@@ -35826,7 +35826,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
@@ -35858,7 +35858,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
@@ -35890,7 +35890,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
@@ -35922,7 +35922,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
@@ -35954,7 +35954,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
@@ -35986,7 +35986,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -36018,7 +36018,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
@@ -36050,7 +36050,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
@@ -36082,7 +36082,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
@@ -36114,7 +36114,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -36146,7 +36146,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
@@ -36178,7 +36178,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
@@ -36210,7 +36210,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
@@ -36242,7 +36242,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
@@ -36274,7 +36274,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
@@ -36306,7 +36306,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
@@ -36338,7 +36338,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
@@ -36370,7 +36370,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
@@ -36402,7 +36402,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
@@ -36434,7 +36434,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
@@ -36466,7 +36466,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
@@ -36498,7 +36498,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
@@ -36530,7 +36530,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
@@ -36562,7 +36562,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -36594,7 +36594,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
@@ -36626,7 +36626,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
@@ -36658,7 +36658,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
@@ -36690,7 +36690,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
@@ -36722,7 +36722,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -36754,7 +36754,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
@@ -36786,7 +36786,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
@@ -36818,7 +36818,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
@@ -36850,7 +36850,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>XII. Magallanes</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -36882,7 +36882,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -36914,7 +36914,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -36946,7 +36946,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -36978,7 +36978,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -37010,7 +37010,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
@@ -37042,7 +37042,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -37074,7 +37074,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -37106,7 +37106,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -37138,7 +37138,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -37170,7 +37170,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -37202,7 +37202,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -37234,7 +37234,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
@@ -37266,7 +37266,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
@@ -37298,7 +37298,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -37330,7 +37330,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -37362,7 +37362,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -37394,7 +37394,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
@@ -37426,7 +37426,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -37458,7 +37458,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -37490,7 +37490,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -37522,7 +37522,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
@@ -37554,7 +37554,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
@@ -37586,7 +37586,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -37618,7 +37618,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -37650,7 +37650,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
@@ -37682,7 +37682,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -37714,7 +37714,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -37746,7 +37746,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
@@ -37778,7 +37778,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
@@ -37810,7 +37810,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -37842,7 +37842,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
@@ -37874,7 +37874,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
@@ -37906,7 +37906,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
@@ -37938,7 +37938,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
@@ -37970,7 +37970,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
@@ -38002,7 +38002,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
@@ -38034,7 +38034,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -38066,7 +38066,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
@@ -38098,7 +38098,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
@@ -38130,7 +38130,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
@@ -38162,7 +38162,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
@@ -38194,7 +38194,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
@@ -38226,7 +38226,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>XII. Magallanes</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
@@ -38258,7 +38258,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>I. Tarapaca</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
@@ -38290,7 +38290,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38322,7 +38322,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38354,7 +38354,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -38386,7 +38386,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
@@ -38418,7 +38418,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -38450,7 +38450,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
@@ -38482,7 +38482,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
@@ -38514,7 +38514,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
@@ -38546,7 +38546,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
@@ -38578,7 +38578,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
@@ -38610,7 +38610,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>XII. Magallanes</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
@@ -38642,7 +38642,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -38674,7 +38674,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -38706,7 +38706,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -38738,7 +38738,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -38770,7 +38770,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>XV. Arica y Parinacota</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
@@ -38802,7 +38802,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
@@ -38834,7 +38834,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -38866,7 +38866,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -38898,7 +38898,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -38930,7 +38930,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -38962,7 +38962,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -38994,7 +38994,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39026,7 +39026,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39058,7 +39058,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39090,7 +39090,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39122,7 +39122,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39154,7 +39154,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
@@ -39186,7 +39186,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
@@ -39218,7 +39218,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -39250,7 +39250,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -39282,7 +39282,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -39314,7 +39314,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -39346,7 +39346,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
@@ -39378,7 +39378,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
@@ -39410,7 +39410,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -39442,7 +39442,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39474,7 +39474,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
@@ -39506,7 +39506,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -39538,7 +39538,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -39570,7 +39570,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -39602,7 +39602,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -39634,7 +39634,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -39666,7 +39666,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
@@ -39698,7 +39698,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>XI. Aysén</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -39730,7 +39730,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -39762,7 +39762,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
@@ -39794,7 +39794,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -39826,7 +39826,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -39858,7 +39858,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
@@ -39890,7 +39890,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -39922,7 +39922,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -39954,7 +39954,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
@@ -39986,7 +39986,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -40018,7 +40018,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -40050,7 +40050,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -40082,7 +40082,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -40114,7 +40114,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
@@ -40146,7 +40146,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -40178,7 +40178,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -40210,7 +40210,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -40242,7 +40242,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -40274,7 +40274,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -40306,7 +40306,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -40338,7 +40338,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -40370,7 +40370,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>X. Los Lagos</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -40402,7 +40402,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -40434,7 +40434,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
@@ -40466,7 +40466,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -40498,7 +40498,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
@@ -40530,7 +40530,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
@@ -40562,7 +40562,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
@@ -40594,7 +40594,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
@@ -40626,7 +40626,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
@@ -40658,7 +40658,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>VI. O Higgins</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
@@ -40690,7 +40690,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -40722,7 +40722,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
@@ -40754,7 +40754,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
@@ -40786,7 +40786,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
@@ -40818,7 +40818,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
@@ -40850,7 +40850,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
@@ -40882,7 +40882,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
@@ -40914,7 +40914,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
@@ -40946,7 +40946,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
@@ -40978,7 +40978,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
@@ -41010,7 +41010,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
@@ -41042,7 +41042,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
@@ -41074,7 +41074,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
@@ -41106,7 +41106,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
@@ -41138,7 +41138,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
@@ -41170,7 +41170,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>II. Antofagasta</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
@@ -41202,7 +41202,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
@@ -41234,7 +41234,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
@@ -41266,7 +41266,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
@@ -41298,7 +41298,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
@@ -41330,7 +41330,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
@@ -41362,7 +41362,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>XIV. Los Ríos</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
@@ -41394,7 +41394,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>III. Atacama</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
@@ -41426,7 +41426,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
@@ -41458,7 +41458,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
@@ -41490,7 +41490,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
@@ -41522,7 +41522,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>IV. Coquimbo</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
@@ -41554,7 +41554,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
@@ -41586,7 +41586,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
@@ -41618,7 +41618,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
@@ -41650,7 +41650,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>IX. La Araucanía</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
@@ -41682,7 +41682,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
@@ -41714,7 +41714,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
@@ -41746,7 +41746,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>VII. Maule</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
@@ -41778,7 +41778,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
@@ -41810,7 +41810,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>VIII. Biobío</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
@@ -41842,7 +41842,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>V. Valparaíso</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
@@ -41874,7 +41874,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
@@ -41906,7 +41906,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
@@ -41938,7 +41938,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
@@ -41970,7 +41970,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
@@ -42002,7 +42002,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
@@ -42034,7 +42034,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
@@ -42066,7 +42066,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
@@ -42098,7 +42098,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
@@ -42130,7 +42130,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
@@ -42162,7 +42162,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
@@ -42194,7 +42194,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
@@ -42226,7 +42226,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Arica y Parinacota</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
@@ -42258,7 +42258,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
@@ -42290,7 +42290,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
@@ -42322,7 +42322,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
@@ -42354,7 +42354,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
@@ -42386,7 +42386,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
@@ -42418,7 +42418,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
@@ -42450,7 +42450,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
@@ -42482,7 +42482,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
@@ -42514,7 +42514,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
@@ -42546,7 +42546,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
@@ -42578,7 +42578,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
@@ -42610,7 +42610,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Arica y Parinacota</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
@@ -42642,7 +42642,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
@@ -42674,7 +42674,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
@@ -42706,7 +42706,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
@@ -42738,7 +42738,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
@@ -42770,7 +42770,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
@@ -42802,7 +42802,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
@@ -42834,7 +42834,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
@@ -42866,7 +42866,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
@@ -42898,7 +42898,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
@@ -42930,7 +42930,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -42962,7 +42962,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -42994,7 +42994,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
@@ -43026,7 +43026,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
@@ -43058,7 +43058,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
@@ -43090,7 +43090,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
@@ -43122,7 +43122,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -43154,7 +43154,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -43186,7 +43186,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -43218,7 +43218,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
@@ -43250,7 +43250,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -43282,7 +43282,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -43314,7 +43314,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -43346,7 +43346,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -43378,7 +43378,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -43410,7 +43410,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
@@ -43442,7 +43442,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -43474,7 +43474,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -43506,7 +43506,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -43538,7 +43538,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
@@ -43570,7 +43570,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
@@ -43602,7 +43602,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -43634,7 +43634,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
@@ -43666,7 +43666,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
@@ -43698,7 +43698,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
@@ -43730,7 +43730,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
@@ -43762,7 +43762,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
@@ -43794,7 +43794,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
@@ -43826,7 +43826,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
@@ -43858,7 +43858,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
@@ -43890,7 +43890,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
@@ -43922,7 +43922,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
@@ -43954,7 +43954,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
@@ -43986,7 +43986,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
@@ -44018,7 +44018,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
@@ -44050,7 +44050,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
@@ -44082,7 +44082,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
@@ -44114,7 +44114,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
@@ -44146,7 +44146,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
@@ -44178,7 +44178,7 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
@@ -44210,7 +44210,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
@@ -44242,7 +44242,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
@@ -44274,7 +44274,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
@@ -44306,7 +44306,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
@@ -44338,7 +44338,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
@@ -44370,7 +44370,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
@@ -44402,7 +44402,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
@@ -44434,7 +44434,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
@@ -44466,7 +44466,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
@@ -44498,7 +44498,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
@@ -44530,7 +44530,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
@@ -44562,7 +44562,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
@@ -44594,7 +44594,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
@@ -44626,7 +44626,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
@@ -44658,7 +44658,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
@@ -44690,7 +44690,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
@@ -44722,7 +44722,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
@@ -44754,7 +44754,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
@@ -44786,7 +44786,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
@@ -44818,7 +44818,7 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
@@ -44850,7 +44850,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
@@ -44882,7 +44882,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
@@ -44914,7 +44914,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -44946,7 +44946,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
@@ -44978,7 +44978,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
@@ -45010,7 +45010,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
@@ -45042,7 +45042,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
@@ -45074,7 +45074,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
@@ -45106,7 +45106,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
@@ -45138,7 +45138,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -45170,7 +45170,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
@@ -45202,7 +45202,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -45234,7 +45234,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
@@ -45266,7 +45266,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
@@ -45298,7 +45298,7 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
@@ -45330,7 +45330,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
@@ -45362,7 +45362,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -45394,7 +45394,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -45426,7 +45426,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
@@ -45458,7 +45458,7 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
@@ -45490,7 +45490,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -45522,7 +45522,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
@@ -45554,7 +45554,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -45586,7 +45586,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -45618,7 +45618,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
@@ -45650,7 +45650,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
@@ -45682,7 +45682,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
@@ -45714,7 +45714,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
@@ -45746,7 +45746,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
@@ -45778,7 +45778,7 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
@@ -45810,7 +45810,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
@@ -45842,7 +45842,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
@@ -45874,7 +45874,7 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
@@ -45906,7 +45906,7 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
@@ -45938,7 +45938,7 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
@@ -45970,7 +45970,7 @@
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr">
@@ -46002,7 +46002,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
@@ -46034,7 +46034,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -46066,7 +46066,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
@@ -46098,7 +46098,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -46130,7 +46130,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
@@ -46162,7 +46162,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -46194,7 +46194,7 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
@@ -46226,7 +46226,7 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
@@ -46258,7 +46258,7 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
@@ -46290,7 +46290,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
@@ -46322,7 +46322,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
@@ -46354,7 +46354,7 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -46386,7 +46386,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
@@ -46418,7 +46418,7 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
@@ -46450,7 +46450,7 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
@@ -46482,7 +46482,7 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
@@ -46514,7 +46514,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
@@ -46546,7 +46546,7 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
@@ -46578,7 +46578,7 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
@@ -46610,7 +46610,7 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
@@ -46642,7 +46642,7 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
@@ -46674,7 +46674,7 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
@@ -46706,7 +46706,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
@@ -46738,7 +46738,7 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
@@ -46770,7 +46770,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
@@ -46802,7 +46802,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
@@ -46834,7 +46834,7 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
@@ -46866,7 +46866,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
@@ -46898,7 +46898,7 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
@@ -46930,7 +46930,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
@@ -46962,7 +46962,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -46994,7 +46994,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
@@ -47026,7 +47026,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -47058,7 +47058,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -47090,7 +47090,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -47122,7 +47122,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
@@ -47154,7 +47154,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
@@ -47186,7 +47186,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -47218,7 +47218,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -47250,7 +47250,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -47282,7 +47282,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -47314,7 +47314,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
@@ -47346,7 +47346,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
@@ -47378,7 +47378,7 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
@@ -47410,7 +47410,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47442,7 +47442,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -47474,7 +47474,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
@@ -47506,7 +47506,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
@@ -47538,7 +47538,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -47570,7 +47570,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
@@ -47602,7 +47602,7 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47634,7 +47634,7 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47666,7 +47666,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47698,7 +47698,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47730,7 +47730,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47762,7 +47762,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47794,7 +47794,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -47826,7 +47826,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
@@ -47858,7 +47858,7 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
@@ -47890,7 +47890,7 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
@@ -47922,7 +47922,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
@@ -47954,7 +47954,7 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
@@ -47986,7 +47986,7 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
@@ -48018,7 +48018,7 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
@@ -48050,7 +48050,7 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
@@ -48082,7 +48082,7 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
@@ -48114,7 +48114,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -48146,7 +48146,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
@@ -48178,7 +48178,7 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
@@ -48210,7 +48210,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -48242,7 +48242,7 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -48274,7 +48274,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -48306,7 +48306,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -48338,7 +48338,7 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48370,7 +48370,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48402,7 +48402,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48434,7 +48434,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48466,7 +48466,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48498,7 +48498,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48530,7 +48530,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -48562,7 +48562,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -48594,7 +48594,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -48626,7 +48626,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>Región de Tarapacá</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -48658,7 +48658,7 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -48690,7 +48690,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -48722,7 +48722,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -48754,7 +48754,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -48786,7 +48786,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -48818,7 +48818,7 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
@@ -48850,7 +48850,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
@@ -48882,7 +48882,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
@@ -48914,7 +48914,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
@@ -48946,7 +48946,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -48978,7 +48978,7 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -49010,7 +49010,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -49042,7 +49042,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -49074,7 +49074,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -49106,7 +49106,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -49138,7 +49138,7 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Arica y Parinacota</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -49170,7 +49170,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -49202,7 +49202,7 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -49234,7 +49234,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -49266,7 +49266,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -49298,7 +49298,7 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -49330,7 +49330,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -49362,7 +49362,7 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -49394,7 +49394,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -49426,7 +49426,7 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -49458,7 +49458,7 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -49490,7 +49490,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -49522,7 +49522,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -49554,7 +49554,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -49586,7 +49586,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -49618,7 +49618,7 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -49650,7 +49650,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -49682,7 +49682,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
@@ -49714,7 +49714,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
@@ -49746,7 +49746,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
@@ -49778,7 +49778,7 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -49810,7 +49810,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
@@ -49842,7 +49842,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -49874,7 +49874,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
@@ -49906,7 +49906,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
@@ -49938,7 +49938,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -49970,7 +49970,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
@@ -50002,7 +50002,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
@@ -50034,7 +50034,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -50066,7 +50066,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -50098,7 +50098,7 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -50130,7 +50130,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
@@ -50162,7 +50162,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -50194,7 +50194,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -50226,7 +50226,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -50258,7 +50258,7 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -50290,7 +50290,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -50322,7 +50322,7 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
@@ -50354,7 +50354,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -50386,7 +50386,7 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -50418,7 +50418,7 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
@@ -50450,7 +50450,7 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -50482,7 +50482,7 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -50514,7 +50514,7 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -50546,7 +50546,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -50578,7 +50578,7 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -50610,7 +50610,7 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
@@ -50642,7 +50642,7 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
@@ -50674,7 +50674,7 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
@@ -50706,7 +50706,7 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -50738,7 +50738,7 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -50770,7 +50770,7 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -50802,7 +50802,7 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -50834,7 +50834,7 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -50866,7 +50866,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -50898,7 +50898,7 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -50930,7 +50930,7 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
@@ -50962,7 +50962,7 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
@@ -50994,7 +50994,7 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -51026,7 +51026,7 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+          <t>O Higgins</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -51058,7 +51058,7 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -51090,7 +51090,7 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -51122,7 +51122,7 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -51154,7 +51154,7 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -51186,7 +51186,7 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
@@ -51218,7 +51218,7 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
@@ -51250,7 +51250,7 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -51282,7 +51282,7 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -51314,7 +51314,7 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
@@ -51346,7 +51346,7 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -51378,7 +51378,7 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -51410,7 +51410,7 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -51442,7 +51442,7 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -51474,7 +51474,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -51506,7 +51506,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -51538,7 +51538,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>Región de Antofagasta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -51570,7 +51570,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -51602,7 +51602,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -51634,7 +51634,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -51666,7 +51666,7 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
@@ -51698,7 +51698,7 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
@@ -51730,7 +51730,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Los Ríos</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -51762,7 +51762,7 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>Región de Atacama</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
@@ -51794,7 +51794,7 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
@@ -51826,7 +51826,7 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
@@ -51858,7 +51858,7 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
@@ -51890,7 +51890,7 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
@@ -51922,7 +51922,7 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
@@ -51954,7 +51954,7 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -51986,7 +51986,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
@@ -52018,7 +52018,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -52050,7 +52050,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -52082,7 +52082,7 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -52114,7 +52114,7 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -52146,7 +52146,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -52178,7 +52178,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Bio Bio</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -52210,7 +52210,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
